--- a/fhir/ig/mpi/CodeSystem-CSOcupacionesDet.xlsx
+++ b/fhir/ig/mpi/CodeSystem-CSOcupacionesDet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -147,2659 +147,2659 @@
     <t>0210</t>
   </si>
   <si>
-    <t xml:space="preserve">Suboficiales de las Fuerzas Armadas	</t>
+    <t>Suboficiales de las Fuerzas Armadas</t>
   </si>
   <si>
     <t>0310</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros miembros de las Fuerzas Armadas	</t>
+    <t>Otros miembros de las Fuerzas Armadas</t>
   </si>
   <si>
     <t>1111</t>
   </si>
   <si>
-    <t xml:space="preserve">Miembros del poder ejecutivo y legislativo	</t>
+    <t>Miembros del poder ejecutivo y legislativo</t>
   </si>
   <si>
     <t>1112</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal directivo de la administración pública	</t>
+    <t>Personal directivo de la administración pública</t>
   </si>
   <si>
     <t>1113</t>
   </si>
   <si>
-    <t xml:space="preserve">Jefes de comunidades indígenas	</t>
+    <t>Jefes de comunidades indígenas</t>
   </si>
   <si>
     <t>1114</t>
   </si>
   <si>
-    <t xml:space="preserve">Dirigentes de organizaciones sociales y/o políticas (sindicatos, organizaciones sociales, partidos políticos, entre otras)	</t>
+    <t>Dirigentes de organizaciones sociales y/o políticas (sindicatos, organizaciones sociales, partidos políticos, entre otras)</t>
   </si>
   <si>
     <t>1120</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores y gerentes generales de empresas	</t>
+    <t>Directores y gerentes generales de empresas</t>
   </si>
   <si>
     <t>1211</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de finanzas 	</t>
+    <t>Directores, gerentes y administradores de finanzas</t>
   </si>
   <si>
     <t>1212</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de recursos humanos	</t>
+    <t>Directores, gerentes y administradores de recursos humanos</t>
   </si>
   <si>
     <t>1213</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de políticas empresariales y planificación	</t>
+    <t>Directores, gerentes y administradores de políticas empresariales y planificación</t>
   </si>
   <si>
     <t>1219</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros directores, gerentes y administradores de servicios administrativos no clasificados previamente	</t>
+    <t>Otros directores, gerentes y administradores de servicios administrativos no clasificados previamente</t>
   </si>
   <si>
     <t>1221</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores comercialización	</t>
+    <t>Directores, gerentes y administradores comercialización</t>
   </si>
   <si>
     <t>1222</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de publicidad y relaciones públicas	</t>
+    <t>Directores, gerentes y administradores de publicidad y relaciones públicas</t>
   </si>
   <si>
     <t>1223</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de investigación y desarrollo	</t>
+    <t>Directores, gerentes y administradores de investigación y desarrollo</t>
   </si>
   <si>
     <t>1311</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de producción y operaciones agropecuarias y de silvicultura	</t>
+    <t>Directores, gerentes y administradores de producción y operaciones agropecuarias y de silvicultura</t>
   </si>
   <si>
     <t>1312</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de producción y operaciones de acuicultura y pesca	</t>
+    <t>Directores, gerentes y administradores de producción y operaciones de acuicultura y pesca</t>
   </si>
   <si>
     <t>1321</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de industrias manufactureras	</t>
+    <t>Directores, gerentes y administradores de industrias manufactureras</t>
   </si>
   <si>
     <t>1322</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de explotaciones mineras	</t>
+    <t>Directores, gerentes y administradores de explotaciones mineras</t>
   </si>
   <si>
     <t>1323</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de construcción	</t>
+    <t>Directores, gerentes y administradores de construcción</t>
   </si>
   <si>
     <t>1324</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de empresas de abastecimiento, almacenamiento y distribución	</t>
+    <t>Directores, gerentes y administradores de empresas de abastecimiento, almacenamiento y distribución</t>
   </si>
   <si>
     <t>1330</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de tecnología de la información y las comunicaciones	</t>
+    <t>Directores, gerentes y administradores de servicios de tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>1341</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de cuidados infantiles	</t>
+    <t>Directores, gerentes y administradores de servicios de cuidados infantiles</t>
   </si>
   <si>
     <t>1342</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de salud	</t>
+    <t>Directores, gerentes y administradores de servicios de salud</t>
   </si>
   <si>
     <t>1343</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de cuidado de adultos mayores	</t>
+    <t>Directores, gerentes y administradores de servicios de cuidado de adultos mayores</t>
   </si>
   <si>
     <t>1344</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, generales y administradores de servicios de bienestar social	</t>
+    <t>Directores, generales y administradores de servicios de bienestar social</t>
   </si>
   <si>
     <t>1345</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios de educación	</t>
+    <t>Directores, gerentes y administradores de servicios de educación</t>
   </si>
   <si>
     <t>1346</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de servicios financieros	</t>
+    <t>Directores, gerentes y administradores de servicios financieros</t>
   </si>
   <si>
     <t>1349</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de otros servicios profesionales no clasificados previamente	</t>
+    <t>Directores, gerentes y administradores de otros servicios profesionales no clasificados previamente</t>
   </si>
   <si>
     <t>1411</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de hoteles	</t>
+    <t>Directores, gerentes y administradores de hoteles</t>
   </si>
   <si>
     <t>1412</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de restaurantes	</t>
+    <t>Directores, gerentes y administradores de restaurantes</t>
   </si>
   <si>
     <t>1420</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de comercios al por mayor y al por menor	</t>
+    <t>Directores, gerentes y administradores de comercios al por mayor y al por menor</t>
   </si>
   <si>
     <t>1431</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de centros deportivos, de esparcimiento y culturales	</t>
+    <t>Directores, gerentes y administradores de centros deportivos, de esparcimiento y culturales</t>
   </si>
   <si>
     <t>1439</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores, gerentes y administradores de otros servicios no clasificados previamente	</t>
+    <t>Directores, gerentes y administradores de otros servicios no clasificados previamente</t>
   </si>
   <si>
     <t>2111</t>
   </si>
   <si>
-    <t xml:space="preserve">Físicos y astrónomos	</t>
+    <t>Físicos y astrónomos</t>
   </si>
   <si>
     <t>2112</t>
   </si>
   <si>
-    <t xml:space="preserve">Meteorólogos	</t>
+    <t>Meteorólogos</t>
   </si>
   <si>
     <t>2113</t>
   </si>
   <si>
-    <t xml:space="preserve">Químicos	</t>
+    <t>Químicos</t>
   </si>
   <si>
     <t>2114</t>
   </si>
   <si>
-    <t xml:space="preserve">Geólogos y geofísicos	</t>
+    <t>Geólogos y geofísicos</t>
   </si>
   <si>
     <t>2120</t>
   </si>
   <si>
-    <t xml:space="preserve">Matemáticos y estadísticos	</t>
+    <t>Matemáticos y estadísticos</t>
   </si>
   <si>
     <t>2131</t>
   </si>
   <si>
-    <t xml:space="preserve">Biólogos, botánicos, zoólogos, genetista y farmacólogos	</t>
+    <t>Biólogos, botánicos, zoólogos, genetista y farmacólogos</t>
   </si>
   <si>
     <t>2132</t>
   </si>
   <si>
-    <t xml:space="preserve">Agrónomos y profesionales del ámbito forestal y pesquero	</t>
+    <t>Agrónomos y profesionales del ámbito forestal y pesquero</t>
   </si>
   <si>
     <t>2133</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de la protección medioambiental	</t>
+    <t>Profesionales de la protección medioambiental</t>
   </si>
   <si>
     <t>2134</t>
   </si>
   <si>
-    <t xml:space="preserve">Bioquímicos	</t>
+    <t>Bioquímicos</t>
   </si>
   <si>
     <t>2141</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros industriales y de producción	</t>
+    <t>Ingenieros industriales y de producción</t>
   </si>
   <si>
     <t>2142</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros civiles, ingenieros en construcción y constructores civiles	</t>
+    <t>Ingenieros civiles, ingenieros en construcción y constructores civiles</t>
   </si>
   <si>
     <t>2143</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros mediambientales	</t>
+    <t>Ingenieros mediambientales</t>
   </si>
   <si>
     <t>2144</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros mecánicos	</t>
+    <t>Ingenieros mecánicos</t>
   </si>
   <si>
     <t>2145</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros químicos	</t>
+    <t>Ingenieros químicos</t>
   </si>
   <si>
     <t>2146</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros en minas y metalúrgicos	</t>
+    <t>Ingenieros en minas y metalúrgicos</t>
   </si>
   <si>
     <t>2147</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros biomédicos	</t>
+    <t>Ingenieros biomédicos</t>
   </si>
   <si>
     <t>2149</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros ingenieros no clasificados previamente	</t>
+    <t>Otros ingenieros no clasificados previamente</t>
   </si>
   <si>
     <t>2151</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros eléctricos	</t>
+    <t>Ingenieros eléctricos</t>
   </si>
   <si>
     <t>2152</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros electrónicos	</t>
+    <t>Ingenieros electrónicos</t>
   </si>
   <si>
     <t>2153</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros en telecomunicaciones	</t>
+    <t>Ingenieros en telecomunicaciones</t>
   </si>
   <si>
     <t>2161</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectos 	</t>
+    <t>Arquitectos</t>
   </si>
   <si>
     <t>2162</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectos paisajistas	</t>
+    <t>Arquitectos paisajistas</t>
   </si>
   <si>
     <t>2163</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores de productos y de vestuario	</t>
+    <t>Diseñadores de productos y de vestuario</t>
   </si>
   <si>
     <t>2164</t>
   </si>
   <si>
-    <t xml:space="preserve">Urbanistas e ingenieros de transporte y tránsito	</t>
+    <t>Urbanistas e ingenieros de transporte y tránsito</t>
   </si>
   <si>
     <t>2165</t>
   </si>
   <si>
-    <t xml:space="preserve">Cartógrafos y agrimensores	</t>
+    <t>Cartógrafos y agrimensores</t>
   </si>
   <si>
     <t>2166</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores gráficos y de multimedia	</t>
+    <t>Diseñadores gráficos y de multimedia</t>
   </si>
   <si>
     <t>2211</t>
   </si>
   <si>
-    <t xml:space="preserve">Médicos generales  	</t>
+    <t>Médicos generales</t>
   </si>
   <si>
     <t>2212</t>
   </si>
   <si>
-    <t xml:space="preserve">Médicos especialistas	</t>
+    <t>Médicos especialistas</t>
   </si>
   <si>
     <t>2221</t>
   </si>
   <si>
-    <t xml:space="preserve">Enfermeros profesionales	</t>
+    <t>Enfermeros profesionales</t>
   </si>
   <si>
     <t>2222</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de matronería	</t>
+    <t>Profesionales de matronería</t>
   </si>
   <si>
     <t>2230</t>
   </si>
   <si>
-    <t xml:space="preserve">Veterinarios	</t>
+    <t>Veterinarios</t>
   </si>
   <si>
     <t>2241</t>
   </si>
   <si>
-    <t xml:space="preserve">Dentistas  	</t>
+    <t>Dentistas</t>
   </si>
   <si>
     <t>2242</t>
   </si>
   <si>
-    <t xml:space="preserve">Químicos farmaceúticos	</t>
+    <t>Químicos farmaceúticos</t>
   </si>
   <si>
     <t>2243</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieros en prevención de riesgos y otros profesionales de la seguridad e higiene laboral y ambiental	</t>
+    <t>Ingenieros en prevención de riesgos y otros profesionales de la seguridad e higiene laboral y ambiental</t>
   </si>
   <si>
     <t>2244</t>
   </si>
   <si>
-    <t xml:space="preserve">Kinesiólogos	</t>
+    <t>Kinesiólogos</t>
   </si>
   <si>
     <t>2245</t>
   </si>
   <si>
-    <t xml:space="preserve">Dietistas y nutricionistas	</t>
+    <t>Dietistas y nutricionistas</t>
   </si>
   <si>
     <t>2246</t>
   </si>
   <si>
-    <t xml:space="preserve">Fonoaudiólogos	</t>
+    <t>Fonoaudiólogos</t>
   </si>
   <si>
     <t>2247</t>
   </si>
   <si>
-    <t xml:space="preserve">Tecnólogos médicos	</t>
+    <t>Tecnólogos médicos</t>
   </si>
   <si>
     <t>2248</t>
   </si>
   <si>
-    <t xml:space="preserve">Terapeutas ocupacionales	</t>
+    <t>Terapeutas ocupacionales</t>
   </si>
   <si>
     <t>2249</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesionales de la salud no clasificados previamente	</t>
+    <t>Otros profesionales de la salud no clasificados previamente</t>
   </si>
   <si>
     <t>2310</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de la educación superior	</t>
+    <t>Profesores de la educación superior</t>
   </si>
   <si>
     <t>2320</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de educación media técnico profesional (especialidades) y de formación laboral 	</t>
+    <t>Profesores de educación media técnico profesional (especialidades) y de formación laboral</t>
   </si>
   <si>
     <t>2330</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de educación media  	</t>
+    <t>Profesores de educación media</t>
   </si>
   <si>
     <t>2341</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesores de educación básica	</t>
+    <t>Profesores de educación básica</t>
   </si>
   <si>
     <t>2342</t>
   </si>
   <si>
-    <t xml:space="preserve">Educadores de párvulos	</t>
+    <t>Educadores de párvulos</t>
   </si>
   <si>
     <t>2351</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en métodos pedagógicos 	</t>
+    <t>Especialistas en métodos pedagógicos</t>
   </si>
   <si>
     <t>2352</t>
   </si>
   <si>
-    <t xml:space="preserve">Educadores para necesidades especiales	</t>
+    <t>Educadores para necesidades especiales</t>
   </si>
   <si>
     <t>2353</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesores de idiomas	</t>
+    <t>Otros profesores de idiomas</t>
   </si>
   <si>
     <t>2354</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesores de música	</t>
+    <t>Otros profesores de música</t>
   </si>
   <si>
     <t>2355</t>
   </si>
   <si>
-    <t xml:space="preserve">otros profesores de artes	</t>
+    <t>otros profesores de artes</t>
   </si>
   <si>
     <t>2356</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructores en tecnologías de la información	</t>
+    <t>Instructores en tecnologías de la información</t>
   </si>
   <si>
     <t>2359</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesionales de la educación no clasificados previamente	</t>
+    <t>Otros profesionales de la educación no clasificados previamente</t>
   </si>
   <si>
     <t>2411</t>
   </si>
   <si>
-    <t xml:space="preserve">Contadores  	</t>
+    <t>Contadores</t>
   </si>
   <si>
     <t>2412</t>
   </si>
   <si>
-    <t xml:space="preserve">Asesores financieros y en inversiones	</t>
+    <t>Asesores financieros y en inversiones</t>
   </si>
   <si>
     <t>2413</t>
   </si>
   <si>
-    <t xml:space="preserve">Analistas financieros	</t>
+    <t>Analistas financieros</t>
   </si>
   <si>
     <t>2421</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas y asesores de gestión 	</t>
+    <t>Especialistas y asesores de gestión</t>
   </si>
   <si>
     <t>2422</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en políticas de administración	</t>
+    <t>Especialistas en políticas de administración</t>
   </si>
   <si>
     <t>2423</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en políticas y servicios de personal	</t>
+    <t>Especialistas en políticas y servicios de personal</t>
   </si>
   <si>
     <t>2424</t>
   </si>
   <si>
-    <t xml:space="preserve">Especialistas en formación del personal	</t>
+    <t>Especialistas en formación del personal</t>
   </si>
   <si>
     <t>2431</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de la publicidad y la comercialización	</t>
+    <t>Profesionales de la publicidad y la comercialización</t>
   </si>
   <si>
     <t>2432</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de las relaciones públicas	</t>
+    <t>Profesionales de las relaciones públicas</t>
   </si>
   <si>
     <t>2433</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de ventas técnicas y médicas (excluyendo las TIC)	</t>
+    <t>Profesionales de ventas técnicas y médicas (excluyendo las TIC)</t>
   </si>
   <si>
     <t>2434</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales de ventas de tecnología de la información y las comunicaciones (TIC)	</t>
+    <t>Profesionales de ventas de tecnología de la información y las comunicaciones (TIC)</t>
   </si>
   <si>
     <t>2511</t>
   </si>
   <si>
-    <t xml:space="preserve">Analistas de sistemas	</t>
+    <t>Analistas de sistemas</t>
   </si>
   <si>
     <t>2512</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrolladores de software	</t>
+    <t>Desarrolladores de software</t>
   </si>
   <si>
     <t>2513</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarrolladores web y multimedia	</t>
+    <t>Desarrolladores web y multimedia</t>
   </si>
   <si>
     <t>2514</t>
   </si>
   <si>
-    <t xml:space="preserve">Programadores de aplicaciones	</t>
+    <t>Programadores de aplicaciones</t>
   </si>
   <si>
     <t>2519</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros desarrolladores y analistas de software y multimedia no clasificados previamente	</t>
+    <t>Otros desarrolladores y analistas de software y multimedia no clasificados previamente</t>
   </si>
   <si>
     <t>2521</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores y administradores de bases de datos  	</t>
+    <t>Diseñadores y administradores de bases de datos</t>
   </si>
   <si>
     <t>2522</t>
   </si>
   <si>
-    <t xml:space="preserve">Administradores de sistemas	</t>
+    <t>Administradores de sistemas</t>
   </si>
   <si>
     <t>2523</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales en redes de computadores	</t>
+    <t>Profesionales en redes de computadores</t>
   </si>
   <si>
     <t>2529</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros especialistas en bases de datos y en redes de computadores no clasificados previamente	</t>
+    <t>Otros especialistas en bases de datos y en redes de computadores no clasificados previamente</t>
   </si>
   <si>
     <t>2611</t>
   </si>
   <si>
-    <t xml:space="preserve">Abogados 	</t>
+    <t>Abogados</t>
   </si>
   <si>
     <t>2612</t>
   </si>
   <si>
-    <t xml:space="preserve">Jueces	</t>
+    <t>Jueces</t>
   </si>
   <si>
     <t>2619</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros profesionales del derecho no clasificados previamente	</t>
+    <t>Otros profesionales del derecho no clasificados previamente</t>
   </si>
   <si>
     <t>2621</t>
   </si>
   <si>
-    <t xml:space="preserve">Archivistas y curadores de museos	</t>
+    <t>Archivistas y curadores de museos</t>
   </si>
   <si>
     <t>2622</t>
   </si>
   <si>
-    <t xml:space="preserve">Bibliotecarios y documentalistas de archivos	</t>
+    <t>Bibliotecarios y documentalistas de archivos</t>
   </si>
   <si>
     <t>2631</t>
   </si>
   <si>
-    <t xml:space="preserve">Economistas 	</t>
+    <t>Economistas</t>
   </si>
   <si>
     <t>2632</t>
   </si>
   <si>
-    <t xml:space="preserve">Sociólogos, antropólogos, geógrafos y arqueólogos	</t>
+    <t>Sociólogos, antropólogos, geógrafos y arqueólogos</t>
   </si>
   <si>
     <t>2633</t>
   </si>
   <si>
-    <t xml:space="preserve">Filósofos, historiadores y especialistas en ciencias políticas	</t>
+    <t>Filósofos, historiadores y especialistas en ciencias políticas</t>
   </si>
   <si>
     <t>2634</t>
   </si>
   <si>
-    <t xml:space="preserve">Psicólogos	</t>
+    <t>Psicólogos</t>
   </si>
   <si>
     <t>2635</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales del trabajo social	</t>
+    <t>Profesionales del trabajo social</t>
   </si>
   <si>
     <t>2636</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales religiosos	</t>
+    <t>Profesionales religiosos</t>
   </si>
   <si>
     <t>2641</t>
   </si>
   <si>
-    <t xml:space="preserve">Autores y otros escritores	</t>
+    <t>Autores y otros escritores</t>
   </si>
   <si>
     <t>2642</t>
   </si>
   <si>
-    <t xml:space="preserve">Periodistas	</t>
+    <t>Periodistas</t>
   </si>
   <si>
     <t>2643</t>
   </si>
   <si>
-    <t xml:space="preserve">Traductores, intérpretes de lengua de señas y lingüistas	</t>
+    <t>Traductores, intérpretes de lengua de señas y lingüistas</t>
   </si>
   <si>
     <t>2651</t>
   </si>
   <si>
-    <t xml:space="preserve">Artistas de artes plásticas	</t>
+    <t>Artistas de artes plásticas</t>
   </si>
   <si>
     <t>2652</t>
   </si>
   <si>
-    <t xml:space="preserve">Músicos, cantantes y compositores	</t>
+    <t>Músicos, cantantes y compositores</t>
   </si>
   <si>
     <t>2653</t>
   </si>
   <si>
-    <t xml:space="preserve">Bailarines y coreógrafos	</t>
+    <t>Bailarines y coreógrafos</t>
   </si>
   <si>
     <t>2654</t>
   </si>
   <si>
-    <t xml:space="preserve">Directores de cine, radio y teatro	</t>
+    <t>Directores de cine, radio y teatro</t>
   </si>
   <si>
     <t>2655</t>
   </si>
   <si>
-    <t xml:space="preserve">Actores	</t>
+    <t>Actores</t>
   </si>
   <si>
     <t>2656</t>
   </si>
   <si>
-    <t xml:space="preserve">Locutores de radio, televisión y otros medios de comunicación	</t>
+    <t>Locutores de radio, televisión y otros medios de comunicación</t>
   </si>
   <si>
     <t>2659</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros artistas creativos e interpretativos no clasificados previamente	</t>
+    <t>Otros artistas creativos e interpretativos no clasificados previamente</t>
   </si>
   <si>
     <t>3111</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ciencias físicas y químicas	</t>
+    <t>Técnicos en ciencias físicas y químicas</t>
   </si>
   <si>
     <t>3112</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en construcción y topógrafos	</t>
+    <t>Técnicos en construcción y topógrafos</t>
   </si>
   <si>
     <t>3113</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en electricidad	</t>
+    <t>Técnicos en electricidad</t>
   </si>
   <si>
     <t>3114</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en electrónica	</t>
+    <t>Técnicos en electrónica</t>
   </si>
   <si>
     <t>3115</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ingeniería mecánica	</t>
+    <t>Técnicos en ingeniería mecánica</t>
   </si>
   <si>
     <t>3116</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en química industrial	</t>
+    <t>Técnicos en química industrial</t>
   </si>
   <si>
     <t>3117</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ingeniería de minas y metalurgia	</t>
+    <t>Técnicos en ingeniería de minas y metalurgia</t>
   </si>
   <si>
     <t>3118</t>
   </si>
   <si>
-    <t xml:space="preserve">Delineantes y dibujantes técnicos	</t>
+    <t>Delineantes y dibujantes técnicos</t>
   </si>
   <si>
     <t>3119</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros técnicos en ciencias físicas y en ingeniería no clasificados previamente	</t>
+    <t>Otros técnicos en ciencias físicas y en ingeniería no clasificados previamente</t>
   </si>
   <si>
     <t>3121</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de minas  	</t>
+    <t>Supervisores de minas</t>
   </si>
   <si>
     <t>3122</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de industrias manufactureras	</t>
+    <t>Supervisores de industrias manufactureras</t>
   </si>
   <si>
     <t>3123</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de la construcción	</t>
+    <t>Supervisores de la construcción</t>
   </si>
   <si>
     <t>3131</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de producción de energía	</t>
+    <t>Operadores de instalaciones de producción de energía</t>
   </si>
   <si>
     <t>3132</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de incineradores y de instalaciones de tratamiento de agua	</t>
+    <t>Operadores de incineradores y de instalaciones de tratamiento de agua</t>
   </si>
   <si>
     <t>3133</t>
   </si>
   <si>
-    <t xml:space="preserve">Controladores de instalaciones de procesamiento de productos químicos	</t>
+    <t>Controladores de instalaciones de procesamiento de productos químicos</t>
   </si>
   <si>
     <t>3134</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de refinación de petróleo y gas natural	</t>
+    <t>Operadores de instalaciones de refinación de petróleo y gas natural</t>
   </si>
   <si>
     <t>3135</t>
   </si>
   <si>
-    <t xml:space="preserve">Controladores de procesos de producción de metales	</t>
+    <t>Controladores de procesos de producción de metales</t>
   </si>
   <si>
     <t>3139</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en control de procesos no clasificados previamente	</t>
+    <t>Técnicos en control de procesos no clasificados previamente</t>
   </si>
   <si>
     <t>3141</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en ciencias biológicas (excluyendo la medicina)	</t>
+    <t>Técnicos en ciencias biológicas (excluyendo la medicina)</t>
   </si>
   <si>
     <t>3142</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos agropecuarios (incluyendo acuícolas)	</t>
+    <t>Técnicos agropecuarios (incluyendo acuícolas)</t>
   </si>
   <si>
     <t>3143</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos forestales	</t>
+    <t>Técnicos forestales</t>
   </si>
   <si>
     <t>3151</t>
   </si>
   <si>
-    <t xml:space="preserve">Oficiales maquinistas en navegación	</t>
+    <t>Oficiales maquinistas en navegación</t>
   </si>
   <si>
     <t>3152</t>
   </si>
   <si>
-    <t xml:space="preserve">Capitanes y oficiales de cubierta	</t>
+    <t>Capitanes y oficiales de cubierta</t>
   </si>
   <si>
     <t>3153</t>
   </si>
   <si>
-    <t xml:space="preserve">Pilotos de aviación	</t>
+    <t>Pilotos de aviación</t>
   </si>
   <si>
     <t>3154</t>
   </si>
   <si>
-    <t xml:space="preserve">Controladores de tráfico aéreo	</t>
+    <t>Controladores de tráfico aéreo</t>
   </si>
   <si>
     <t>3155</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos electrónicos aeronáuticos	</t>
+    <t>Técnicos electrónicos aeronáuticos</t>
   </si>
   <si>
     <t>3211</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de radiología e imagenología y otros aparatos de diagnóstico y tratamiento médico 	</t>
+    <t>Técnicos y auxiliares paramédicos de radiología e imagenología y otros aparatos de diagnóstico y tratamiento médico</t>
   </si>
   <si>
     <t>3212</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de laboratorios clínicos y servicios de sangre	</t>
+    <t>Técnicos de laboratorios clínicos y servicios de sangre</t>
   </si>
   <si>
     <t>3213</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes farmacéuticos	</t>
+    <t>Técnicos y asistentes farmacéuticos</t>
   </si>
   <si>
     <t>3214</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de prótesis médicas	</t>
+    <t>Técnicos de prótesis médicas</t>
   </si>
   <si>
     <t>3215</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratoristas dentales o técnicos en prótesis dentales	</t>
+    <t>Laboratoristas dentales o técnicos en prótesis dentales</t>
   </si>
   <si>
     <t>3216</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares paramédicos de anatomía patológica	</t>
+    <t>Auxiliares paramédicos de anatomía patológica</t>
   </si>
   <si>
     <t>3221</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de enfermería 	</t>
+    <t>Técnicos y auxiliares paramédicos de enfermería</t>
   </si>
   <si>
     <t>3222</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de esterilización	</t>
+    <t>Técnicos y auxiliares paramédicos de esterilización</t>
   </si>
   <si>
     <t>3223</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudantes de ambulancia	</t>
+    <t>Ayudantes de ambulancia</t>
   </si>
   <si>
     <t>3231</t>
   </si>
   <si>
-    <t xml:space="preserve">Profesionales y técnicos de las terapias complementarias  	</t>
+    <t>Profesionales y técnicos de las terapias complementarias</t>
   </si>
   <si>
     <t>3232</t>
   </si>
   <si>
-    <t xml:space="preserve">Practicantes de la medicina tradicional	</t>
+    <t>Practicantes de la medicina tradicional</t>
   </si>
   <si>
     <t>3240</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes veterinarios	</t>
+    <t>Técnicos y asistentes veterinarios</t>
   </si>
   <si>
     <t>3251</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos en odontología	</t>
+    <t>Técnicos y auxiliares paramédicos en odontología</t>
   </si>
   <si>
     <t>3252</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en documentación e información sanitaria	</t>
+    <t>Técnicos en documentación e información sanitaria</t>
   </si>
   <si>
     <t>3253</t>
   </si>
   <si>
-    <t xml:space="preserve">Podólogos	</t>
+    <t>Podólogos</t>
   </si>
   <si>
     <t>3254</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos ópticos y contactólogos	</t>
+    <t>Técnicos ópticos y contactólogos</t>
   </si>
   <si>
     <t>3255</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes fisioterapeutas	</t>
+    <t>Técnicos y asistentes fisioterapeutas</t>
   </si>
   <si>
     <t>3256</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y auxiliares paramédicos de alimentación	</t>
+    <t>Técnicos y auxiliares paramédicos de alimentación</t>
   </si>
   <si>
     <t>3257</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspectores de la salud y técnicos en prevención de riesgos	</t>
+    <t>Inspectores de la salud y técnicos en prevención de riesgos</t>
   </si>
   <si>
     <t>3258</t>
   </si>
   <si>
-    <t xml:space="preserve">Quiroprácticos y osteópatas	</t>
+    <t>Quiroprácticos y osteópatas</t>
   </si>
   <si>
     <t>3259</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros técnicos de la salud no clasificados previamente	</t>
+    <t>Otros técnicos de la salud no clasificados previamente</t>
   </si>
   <si>
     <t>3311</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de bolsa y otros servicios financieros	</t>
+    <t>Agentes de bolsa y otros servicios financieros</t>
   </si>
   <si>
     <t>3312</t>
   </si>
   <si>
-    <t xml:space="preserve">Ejecutivos de préstamos y créditos	</t>
+    <t>Ejecutivos de préstamos y créditos</t>
   </si>
   <si>
     <t>3313</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos y asistentes en contabilidad	</t>
+    <t>Técnicos y asistentes en contabilidad</t>
   </si>
   <si>
     <t>3314</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de servicios estadísticos y metamáticos	</t>
+    <t>Técnicos de servicios estadísticos y metamáticos</t>
   </si>
   <si>
     <t>3315</t>
   </si>
   <si>
-    <t xml:space="preserve">Tasadores	</t>
+    <t>Tasadores</t>
   </si>
   <si>
     <t>3321</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de seguros y ejecutivos de fondos de pensiones	</t>
+    <t>Agentes de seguros y ejecutivos de fondos de pensiones</t>
   </si>
   <si>
     <t>3322</t>
   </si>
   <si>
-    <t xml:space="preserve">Representantes comerciales (excepto venta de productos y servicios industriales, farmacéuticos y de tecnologías de la información y las comunicaciones)	</t>
+    <t>Representantes comerciales (excepto venta de productos y servicios industriales, farmacéuticos y de tecnologías de la información y las comunicaciones)</t>
   </si>
   <si>
     <t>3323</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes responsables de adquisiciones	</t>
+    <t>Agentes responsables de adquisiciones</t>
   </si>
   <si>
     <t>3324</t>
   </si>
   <si>
-    <t xml:space="preserve">Corredores comerciales y consignatarios	</t>
+    <t>Corredores comerciales y consignatarios</t>
   </si>
   <si>
     <t>3331</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de aduana 	</t>
+    <t>Agentes de aduana</t>
   </si>
   <si>
     <t>3332</t>
   </si>
   <si>
-    <t xml:space="preserve">Organizadores de conferencias y eventos	</t>
+    <t>Organizadores de conferencias y eventos</t>
   </si>
   <si>
     <t>3333</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de empleo y contratistas de personal	</t>
+    <t>Agentes de empleo y contratistas de personal</t>
   </si>
   <si>
     <t>3334</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes inmobiliarios	</t>
+    <t>Agentes inmobiliarios</t>
   </si>
   <si>
     <t>3339</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros agentes de servicios comerciales no clasificados previamente	</t>
+    <t>Otros agentes de servicios comerciales no clasificados previamente</t>
   </si>
   <si>
     <t>3341</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de oficina  	</t>
+    <t>Supervisores de oficina</t>
   </si>
   <si>
     <t>3342</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios jurídicos	</t>
+    <t>Secretarios jurídicos</t>
   </si>
   <si>
     <t>3343</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios administrativos y ejecutivos	</t>
+    <t>Secretarios administrativos y ejecutivos</t>
   </si>
   <si>
     <t>3344</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios médicos	</t>
+    <t>Secretarios médicos</t>
   </si>
   <si>
     <t>3351</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspectores de aduana	</t>
+    <t>Inspectores de aduana</t>
   </si>
   <si>
     <t>3352</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de la administración tributaria	</t>
+    <t>Agentes de la administración tributaria</t>
   </si>
   <si>
     <t>3353</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de servicios de prestaciones sociales	</t>
+    <t>Agentes de servicios de prestaciones sociales</t>
   </si>
   <si>
     <t>3354</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de servicios de tramitación y entrega de licencias y permisos	</t>
+    <t>Agentes de servicios de tramitación y entrega de licencias y permisos</t>
   </si>
   <si>
     <t>3355</t>
   </si>
   <si>
-    <t xml:space="preserve">Inspectores y detectives de la Policía de Investigaciones (PDI)	</t>
+    <t>Inspectores y detectives de la Policía de Investigaciones (PDI)</t>
   </si>
   <si>
     <t>3359</t>
   </si>
   <si>
-    <t xml:space="preserve">Agentes de la administración pública para la aplicación de la ley no clasificados previamente	</t>
+    <t>Agentes de la administración pública para la aplicación de la ley no clasificados previamente</t>
   </si>
   <si>
     <t>3411</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de los servicios jurídicos  	</t>
+    <t>Técnicos de los servicios jurídicos</t>
   </si>
   <si>
     <t>3412</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnico en trabajo social	</t>
+    <t>Técnico en trabajo social</t>
   </si>
   <si>
     <t>3413</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de los servicios religiosos	</t>
+    <t>Técnicos de los servicios religiosos</t>
   </si>
   <si>
     <t>3421</t>
   </si>
   <si>
-    <t xml:space="preserve">Atletas y deportistas	</t>
+    <t>Atletas y deportistas</t>
   </si>
   <si>
     <t>3422</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrenadores, instructores y árbitros de actividades deportivas	</t>
+    <t>Entrenadores, instructores y árbitros de actividades deportivas</t>
   </si>
   <si>
     <t>3423</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructores de acondicionamiento físico y actividades recreativas	</t>
+    <t>Instructores de acondicionamiento físico y actividades recreativas</t>
   </si>
   <si>
     <t>3431</t>
   </si>
   <si>
-    <t xml:space="preserve">Fotógrafos 	</t>
+    <t>Fotógrafos</t>
   </si>
   <si>
     <t>3432</t>
   </si>
   <si>
-    <t xml:space="preserve">Diseñadores y decorador de interior	</t>
+    <t>Diseñadores y decorador de interior</t>
   </si>
   <si>
     <t>3433</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en galerías de arte, museos y bibliotecas	</t>
+    <t>Técnicos en galerías de arte, museos y bibliotecas</t>
   </si>
   <si>
     <t>3434</t>
   </si>
   <si>
-    <t xml:space="preserve">Chefs	</t>
+    <t>Chefs</t>
   </si>
   <si>
     <t>3435</t>
   </si>
   <si>
-    <t xml:space="preserve">Tatuadores	</t>
+    <t>Tatuadores</t>
   </si>
   <si>
     <t>3439</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros técnicos en actividades culturales y artísticas no clasificados previamente	</t>
+    <t>Otros técnicos en actividades culturales y artísticas no clasificados previamente</t>
   </si>
   <si>
     <t>3511</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en operaciones de tecnología de la información y las comunicaciones	</t>
+    <t>Técnicos en operaciones de tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>3512</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en asistencia al usuario de tecnología de la información y las comunicaciones	</t>
+    <t>Técnicos en asistencia al usuario de tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>3513</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en redes y sistemas de computadores	</t>
+    <t>Técnicos en redes y sistemas de computadores</t>
   </si>
   <si>
     <t>3514</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de la web	</t>
+    <t>Técnicos de la web</t>
   </si>
   <si>
     <t>3521</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de radiodifusión y grabación audiovisual	</t>
+    <t>Técnicos de radiodifusión y grabación audiovisual</t>
   </si>
   <si>
     <t>3522</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos de ingeniería de las telecomunicaciones	</t>
+    <t>Técnicos de ingeniería de las telecomunicaciones</t>
   </si>
   <si>
     <t>3611</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en educación parvularia	</t>
+    <t>Técnicos en educación parvularia</t>
   </si>
   <si>
     <t>3612</t>
   </si>
   <si>
-    <t xml:space="preserve">Técnicos en educación diferencial	</t>
+    <t>Técnicos en educación diferencial</t>
   </si>
   <si>
     <t>4110</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de tareas administrativas generales	</t>
+    <t>Trabajadores de tareas administrativas generales</t>
   </si>
   <si>
     <t>4120</t>
   </si>
   <si>
-    <t xml:space="preserve">Secretarios generales	</t>
+    <t>Secretarios generales</t>
   </si>
   <si>
     <t>4131</t>
   </si>
   <si>
-    <t xml:space="preserve">Oeradores de equipo de procesamiento de texto y mecanógrafos	</t>
+    <t>Oeradores de equipo de procesamiento de texto y mecanógrafos</t>
   </si>
   <si>
     <t>4132</t>
   </si>
   <si>
-    <t xml:space="preserve">Digitadores de datos	</t>
+    <t>Digitadores de datos</t>
   </si>
   <si>
     <t>4211</t>
   </si>
   <si>
-    <t xml:space="preserve">Cajeros de bancos y de oficinas de correo	</t>
+    <t>Cajeros de bancos y de oficinas de correo</t>
   </si>
   <si>
     <t>4212</t>
   </si>
   <si>
-    <t xml:space="preserve">Receptores de apuestas	</t>
+    <t>Receptores de apuestas</t>
   </si>
   <si>
     <t>4213</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de casa de empeño y prestamistas	</t>
+    <t>Empleados de casa de empeño y prestamistas</t>
   </si>
   <si>
     <t>4214</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobradores	</t>
+    <t>Cobradores</t>
   </si>
   <si>
     <t>4221</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de agencias de viajes	</t>
+    <t>Empleados de agencias de viajes</t>
   </si>
   <si>
     <t>4222</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de centros de llamadas de informaciones	</t>
+    <t>Empleados de centros de llamadas de informaciones</t>
   </si>
   <si>
     <t>4223</t>
   </si>
   <si>
-    <t xml:space="preserve">Telefonistas	</t>
+    <t>Telefonistas</t>
   </si>
   <si>
     <t>4224</t>
   </si>
   <si>
-    <t xml:space="preserve">Recepcionistas de hoteles	</t>
+    <t>Recepcionistas de hoteles</t>
   </si>
   <si>
     <t>4225</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de informaciones, reclamos o sugerencias	</t>
+    <t>Empleados de informaciones, reclamos o sugerencias</t>
   </si>
   <si>
     <t>4226</t>
   </si>
   <si>
-    <t xml:space="preserve">Recepcionistas (funciones generales)	</t>
+    <t>Recepcionistas (funciones generales)</t>
   </si>
   <si>
     <t>4227</t>
   </si>
   <si>
-    <t xml:space="preserve">Entrevistadores de investigaciones de mercado, estudios de opinión pública y encuestadores	</t>
+    <t>Entrevistadores de investigaciones de mercado, estudios de opinión pública y encuestadores</t>
   </si>
   <si>
     <t>4229</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros empleados de servicios de información al cliente no clasificados previamente	</t>
+    <t>Otros empleados de servicios de información al cliente no clasificados previamente</t>
   </si>
   <si>
     <t>4311</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares y ayudantes de registros de contabilidad y cálculo de costos	</t>
+    <t>Auxiliares y ayudantes de registros de contabilidad y cálculo de costos</t>
   </si>
   <si>
     <t>4312</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares y ayudantes de servicios estadísticos, financieros y de seguros	</t>
+    <t>Auxiliares y ayudantes de servicios estadísticos, financieros y de seguros</t>
   </si>
   <si>
     <t>4313</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados encargados de nóminas o registros de remuneraciones 	</t>
+    <t>Empleados encargados de nóminas o registros de remuneraciones</t>
   </si>
   <si>
     <t>4321</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados encargados del control de abastecimiento e inventario	</t>
+    <t>Empleados encargados del control de abastecimiento e inventario</t>
   </si>
   <si>
     <t>4322</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de cálculo de los insumos y materiales para la producción	</t>
+    <t>Empleados de cálculo de los insumos y materiales para la producción</t>
   </si>
   <si>
     <t>4323</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados de servicios de transporte	</t>
+    <t>Empleados de servicios de transporte</t>
   </si>
   <si>
     <t>4411</t>
   </si>
   <si>
-    <t xml:space="preserve">Asistentes y ayudantes de bibliotecas	</t>
+    <t>Asistentes y ayudantes de bibliotecas</t>
   </si>
   <si>
     <t>4412</t>
   </si>
   <si>
-    <t xml:space="preserve">Carteros y empleados de servicios de correos y encomiendas	</t>
+    <t>Carteros y empleados de servicios de correos y encomiendas</t>
   </si>
   <si>
     <t>4413</t>
   </si>
   <si>
-    <t xml:space="preserve">Codificadores de datos y correctores de pruebas de imprenta	</t>
+    <t>Codificadores de datos y correctores de pruebas de imprenta</t>
   </si>
   <si>
     <t>4414</t>
   </si>
   <si>
-    <t xml:space="preserve">Escribientes públicos	</t>
+    <t>Escribientes públicos</t>
   </si>
   <si>
     <t>4415</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados administrativos de archivos	</t>
+    <t>Empleados administrativos de archivos</t>
   </si>
   <si>
     <t>4416</t>
   </si>
   <si>
-    <t xml:space="preserve">Empleados y asistentes de recursos humanos	</t>
+    <t>Empleados y asistentes de recursos humanos</t>
   </si>
   <si>
     <t>4419</t>
   </si>
   <si>
-    <t xml:space="preserve">Otro personal de apoyo administrativo no clasificado previamente	</t>
+    <t>Otro personal de apoyo administrativo no clasificado previamente</t>
   </si>
   <si>
     <t>5111</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares de servicio a bordo de aeronaves y barcos	</t>
+    <t>Auxiliares de servicio a bordo de aeronaves y barcos</t>
   </si>
   <si>
     <t>5112</t>
   </si>
   <si>
-    <t xml:space="preserve">Revisores y cobradores de los transportes públicos	</t>
+    <t>Revisores y cobradores de los transportes públicos</t>
   </si>
   <si>
     <t>5113</t>
   </si>
   <si>
-    <t xml:space="preserve">Guías de turismo	</t>
+    <t>Guías de turismo</t>
   </si>
   <si>
     <t>5120</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocineros	</t>
+    <t>Cocineros</t>
   </si>
   <si>
     <t>5131</t>
   </si>
   <si>
-    <t xml:space="preserve">Garzones de mesa  	</t>
+    <t>Garzones de mesa</t>
   </si>
   <si>
     <t>5132</t>
   </si>
   <si>
-    <t xml:space="preserve">bármanes	</t>
+    <t>bármanes</t>
   </si>
   <si>
     <t>5141</t>
   </si>
   <si>
-    <t xml:space="preserve">Peluqueros 	</t>
+    <t>Peluqueros</t>
   </si>
   <si>
     <t>5142</t>
   </si>
   <si>
-    <t xml:space="preserve">Cosmetólogos y especialistas en tratamiento de belleza	</t>
+    <t>Cosmetólogos y especialistas en tratamiento de belleza</t>
   </si>
   <si>
     <t>5151</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de mantenimiento y limpieza en oficinas, hoteles y otros establecimientos	</t>
+    <t>Supervisores de mantenimiento y limpieza en oficinas, hoteles y otros establecimientos</t>
   </si>
   <si>
     <t>5152</t>
   </si>
   <si>
-    <t xml:space="preserve">Amas de llaves, mayordomos domésticos y dueños/administradores de pequeños establecimientos de alojamiento	</t>
+    <t>Amas de llaves, mayordomos domésticos y dueños/administradores de pequeños establecimientos de alojamiento</t>
   </si>
   <si>
     <t>5153</t>
   </si>
   <si>
-    <t xml:space="preserve">Conserjes	</t>
+    <t>Conserjes</t>
   </si>
   <si>
     <t>5161</t>
   </si>
   <si>
-    <t xml:space="preserve">Astrólogos y adivinadores	</t>
+    <t>Astrólogos y adivinadores</t>
   </si>
   <si>
     <t>5162</t>
   </si>
   <si>
-    <t xml:space="preserve">Acompañantes	</t>
+    <t>Acompañantes</t>
   </si>
   <si>
     <t>5163</t>
   </si>
   <si>
-    <t xml:space="preserve">Personal de pompas fúnebres y embalsamadores	</t>
+    <t>Personal de pompas fúnebres y embalsamadores</t>
   </si>
   <si>
     <t>5164</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuidadores de animales	</t>
+    <t>Cuidadores de animales</t>
   </si>
   <si>
     <t>5165</t>
   </si>
   <si>
-    <t xml:space="preserve">Instructores de manejo	</t>
+    <t>Instructores de manejo</t>
   </si>
   <si>
     <t>5169</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros trabajadores de servicios a las personas no clasificados previamente	</t>
+    <t>Otros trabajadores de servicios a las personas no clasificados previamente</t>
   </si>
   <si>
     <t>5211</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores en quioscos o puestos de feria  	</t>
+    <t>Vendedores en quioscos o puestos de feria</t>
   </si>
   <si>
     <t>5212</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores ambulantes de productos comestibles de consumo inmediato (elaboración propia)	</t>
+    <t>Vendedores ambulantes de productos comestibles de consumo inmediato (elaboración propia)</t>
   </si>
   <si>
     <t>5221</t>
   </si>
   <si>
-    <t xml:space="preserve">Comerciantes y dueños - operadores de locales comerciales, tiendas, almacenes y mercados	</t>
+    <t>Comerciantes y dueños - operadores de locales comerciales, tiendas, almacenes y mercados</t>
   </si>
   <si>
     <t>5222</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervisores de locales comerciales, tiendas y almacenes	</t>
+    <t>Supervisores de locales comerciales, tiendas y almacenes</t>
   </si>
   <si>
     <t>5223</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores y asistentes de venta de tiendas, almacenes y puestos de mercado	</t>
+    <t>Vendedores y asistentes de venta de tiendas, almacenes y puestos de mercado</t>
   </si>
   <si>
     <t>5230</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores de entrada (entretenciones y eventos deportivos) y cajeros de comercio	</t>
+    <t>Vendedores de entrada (entretenciones y eventos deportivos) y cajeros de comercio</t>
   </si>
   <si>
     <t>5241</t>
   </si>
   <si>
-    <t xml:space="preserve">Modelos de moda, arte y publicidad	</t>
+    <t>Modelos de moda, arte y publicidad</t>
   </si>
   <si>
     <t>5242</t>
   </si>
   <si>
-    <t xml:space="preserve">Promotores de tiendas	</t>
+    <t>Promotores de tiendas</t>
   </si>
   <si>
     <t>5243</t>
   </si>
   <si>
-    <t xml:space="preserve">Representantes de ventas de puerta a puerta (venta a hogares)	</t>
+    <t>Representantes de ventas de puerta a puerta (venta a hogares)</t>
   </si>
   <si>
     <t>5244</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores por internet y otros medios de comunicación	</t>
+    <t>Vendedores por internet y otros medios de comunicación</t>
   </si>
   <si>
     <t>5245</t>
   </si>
   <si>
-    <t xml:space="preserve">Bomberos de gasolineras	</t>
+    <t>Bomberos de gasolineras</t>
   </si>
   <si>
     <t>5246</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores de comida al mostrador	</t>
+    <t>Vendedores de comida al mostrador</t>
   </si>
   <si>
     <t>5249</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros vendedores no clasificados previamente	</t>
+    <t>Otros vendedores no clasificados previamente</t>
   </si>
   <si>
     <t>5311</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuidadores de niños en instituciones y a domicilios	</t>
+    <t>Cuidadores de niños en instituciones y a domicilios</t>
   </si>
   <si>
     <t>5312</t>
   </si>
   <si>
-    <t xml:space="preserve">Asistentes de aulas e inspectores de patio	</t>
+    <t>Asistentes de aulas e inspectores de patio</t>
   </si>
   <si>
     <t>5321</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de los cuidados personales en instituciones 	</t>
+    <t>Trabajadores de los cuidados personales en instituciones</t>
   </si>
   <si>
     <t>5322</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de los cuidados personales a domicilio	</t>
+    <t>Trabajadores de los cuidados personales a domicilio</t>
   </si>
   <si>
     <t>5329</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros trabajadores de los cuidados personales en instituciones y a domicilio no clasificados previamente	</t>
+    <t>Otros trabajadores de los cuidados personales en instituciones y a domicilio no clasificados previamente</t>
   </si>
   <si>
     <t>5411</t>
   </si>
   <si>
-    <t xml:space="preserve">Bomberos  	</t>
+    <t>Bomberos</t>
   </si>
   <si>
     <t>5412</t>
   </si>
   <si>
-    <t xml:space="preserve">Carabineros	</t>
+    <t>Carabineros</t>
   </si>
   <si>
     <t>5413</t>
   </si>
   <si>
-    <t xml:space="preserve">Gendarmes	</t>
+    <t>Gendarmes</t>
   </si>
   <si>
     <t>5414</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardias de seguridad	</t>
+    <t>Guardias de seguridad</t>
   </si>
   <si>
     <t>5419</t>
   </si>
   <si>
-    <t xml:space="preserve">Otro personal de los servicios de protección no clasificados previamente	</t>
+    <t>Otro personal de los servicios de protección no clasificados previamente</t>
   </si>
   <si>
     <t>6111</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de cultivos extensivos  	</t>
+    <t>Agricultores y trabajadores calificados de cultivos extensivos</t>
   </si>
   <si>
     <t>6112</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de plantaciones de árboles y arbustos	</t>
+    <t>Agricultores y trabajadores calificados de plantaciones de árboles y arbustos</t>
   </si>
   <si>
     <t>6113</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de huertas, invernaderos, viveros y jardines	</t>
+    <t>Agricultores y trabajadores calificados de huertas, invernaderos, viveros y jardines</t>
   </si>
   <si>
     <t>6114</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultores y trabajadores calificados de cultivos mixtos	</t>
+    <t>Agricultores y trabajadores calificados de cultivos mixtos</t>
   </si>
   <si>
     <t>6121</t>
   </si>
   <si>
-    <t xml:space="preserve">Criadores de ganado	</t>
+    <t>Criadores de ganado</t>
   </si>
   <si>
     <t>6122</t>
   </si>
   <si>
-    <t xml:space="preserve">Avicultores y trabajadores calificados de la avicultura	</t>
+    <t>Avicultores y trabajadores calificados de la avicultura</t>
   </si>
   <si>
     <t>6123</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores calificados de la apicultura y la sericultura	</t>
+    <t>Trabajadores calificados de la apicultura y la sericultura</t>
   </si>
   <si>
     <t>6129</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros criadores y trabajadores calificados de la cría de animales no clasificados previamente	</t>
+    <t>Otros criadores y trabajadores calificados de la cría de animales no clasificados previamente</t>
   </si>
   <si>
     <t>6130</t>
   </si>
   <si>
-    <t xml:space="preserve">Productores y trabajadores calificados de explotaciones agropecuarias mixtas	</t>
+    <t>Productores y trabajadores calificados de explotaciones agropecuarias mixtas</t>
   </si>
   <si>
     <t>6210</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores forestales calificados 	</t>
+    <t>Trabajadores forestales calificados</t>
   </si>
   <si>
     <t>6221</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de explotaciones de acuicultura  	</t>
+    <t>Trabajadores de explotaciones de acuicultura</t>
   </si>
   <si>
     <t>6222</t>
   </si>
   <si>
-    <t xml:space="preserve">Pescadores en agua dulce y en aguas costeras	</t>
+    <t>Pescadores en agua dulce y en aguas costeras</t>
   </si>
   <si>
     <t>6223</t>
   </si>
   <si>
-    <t xml:space="preserve">Pescadores de alta mar	</t>
+    <t>Pescadores de alta mar</t>
   </si>
   <si>
     <t>6224</t>
   </si>
   <si>
-    <t xml:space="preserve">Cazadores y tramperos	</t>
+    <t>Cazadores y tramperos</t>
   </si>
   <si>
     <t>6310</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores agrícolas de subsistencia	</t>
+    <t>Trabajadores agrícolas de subsistencia</t>
   </si>
   <si>
     <t>6320</t>
   </si>
   <si>
-    <t xml:space="preserve">Criadores de subsistencia	</t>
+    <t>Criadores de subsistencia</t>
   </si>
   <si>
     <t>6330</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores agropecuarios de subsitencia	</t>
+    <t>Trabajadores agropecuarios de subsitencia</t>
   </si>
   <si>
     <t>6340</t>
   </si>
   <si>
-    <t xml:space="preserve">Pescadores, cazadores, tramperos y recolectores de subsistencia	</t>
+    <t>Pescadores, cazadores, tramperos y recolectores de subsistencia</t>
   </si>
   <si>
     <t>7111</t>
   </si>
   <si>
-    <t xml:space="preserve">Constructores de casas	</t>
+    <t>Constructores de casas</t>
   </si>
   <si>
     <t>7112</t>
   </si>
   <si>
-    <t xml:space="preserve">Albañiles	</t>
+    <t>Albañiles</t>
   </si>
   <si>
     <t>7113</t>
   </si>
   <si>
-    <t xml:space="preserve">Tronzadores, labrantes y grabadores de piedra	</t>
+    <t>Tronzadores, labrantes y grabadores de piedra</t>
   </si>
   <si>
     <t>7114</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios en cemento armado	</t>
+    <t>Operarios en cemento armado</t>
   </si>
   <si>
     <t>7115</t>
   </si>
   <si>
-    <t xml:space="preserve">Carpinteros de obra	</t>
+    <t>Carpinteros de obra</t>
   </si>
   <si>
     <t>7119</t>
   </si>
   <si>
-    <t xml:space="preserve">Otros operarios de la construcción (obra gruesa) no clasificados previamente	</t>
+    <t>Otros operarios de la construcción (obra gruesa) no clasificados previamente</t>
   </si>
   <si>
     <t>7121</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores o reparadores de techos	</t>
+    <t>Instaladores o reparadores de techos</t>
   </si>
   <si>
     <t>7122</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores de parqué, cerámicas, baldosas y alfombras	</t>
+    <t>Instaladores de parqué, cerámicas, baldosas y alfombras</t>
   </si>
   <si>
     <t>7123</t>
   </si>
   <si>
-    <t xml:space="preserve">Yeseros, estucadores y revocadores	</t>
+    <t>Yeseros, estucadores y revocadores</t>
   </si>
   <si>
     <t>7124</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores de material aislante y de insonorización	</t>
+    <t>Instaladores de material aislante y de insonorización</t>
   </si>
   <si>
     <t>7125</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristaleros	</t>
+    <t>Cristaleros</t>
   </si>
   <si>
     <t>7126</t>
   </si>
   <si>
-    <t xml:space="preserve">Gásfiter e instaladores de tuberías	</t>
+    <t>Gásfiter e instaladores de tuberías</t>
   </si>
   <si>
     <t>7127</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos de instalaciones de refrigeración y aire acondicionado	</t>
+    <t>Mecánicos de instalaciones de refrigeración y aire acondicionado</t>
   </si>
   <si>
     <t>7131</t>
   </si>
   <si>
-    <t xml:space="preserve">Pintores y empapeladores de paredes	</t>
+    <t>Pintores y empapeladores de paredes</t>
   </si>
   <si>
     <t>7132</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnizadores y pulverizadores de productos manufacturados	</t>
+    <t>Barnizadores y pulverizadores de productos manufacturados</t>
   </si>
   <si>
     <t>7133</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiadores de fachadas y deshollinadores	</t>
+    <t>Limpiadores de fachadas y deshollinadores</t>
   </si>
   <si>
     <t>7211</t>
   </si>
   <si>
-    <t xml:space="preserve">Moldeadores y macheros	</t>
+    <t>Moldeadores y macheros</t>
   </si>
   <si>
     <t>7212</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldadores y oxicortadores	</t>
+    <t>Soldadores y oxicortadores</t>
   </si>
   <si>
     <t>7213</t>
   </si>
   <si>
-    <t xml:space="preserve">Chapistas y caldereros	</t>
+    <t>Chapistas y caldereros</t>
   </si>
   <si>
     <t>7214</t>
   </si>
   <si>
-    <t xml:space="preserve">Montadores de estructuras metálicas	</t>
+    <t>Montadores de estructuras metálicas</t>
   </si>
   <si>
     <t>7215</t>
   </si>
   <si>
-    <t xml:space="preserve">Aparejadores y empalmadores de cables no eléctricos	</t>
+    <t>Aparejadores y empalmadores de cables no eléctricos</t>
   </si>
   <si>
     <t>7221</t>
   </si>
   <si>
-    <t xml:space="preserve">Herreros y forjadores	</t>
+    <t>Herreros y forjadores</t>
   </si>
   <si>
     <t>7222</t>
   </si>
   <si>
-    <t xml:space="preserve">Herramentistas	</t>
+    <t>Herramentistas</t>
   </si>
   <si>
     <t>7223</t>
   </si>
   <si>
-    <t xml:space="preserve">Reguladores y operarios de máquinas herramientas	</t>
+    <t>Reguladores y operarios de máquinas herramientas</t>
   </si>
   <si>
     <t>7224</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulidores de metales y afiladores de herramientas	</t>
+    <t>Pulidores de metales y afiladores de herramientas</t>
   </si>
   <si>
     <t>7231</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores de vehículos de motor	</t>
+    <t>Mecánicos y reparadores de vehículos de motor</t>
   </si>
   <si>
     <t>7232</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores de motores de avión	</t>
+    <t>Mecánicos y reparadores de motores de avión</t>
   </si>
   <si>
     <t>7233</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores de máquinas agrícolas e industriales	</t>
+    <t>Mecánicos y reparadores de máquinas agrícolas e industriales</t>
   </si>
   <si>
     <t>7234</t>
   </si>
   <si>
-    <t xml:space="preserve">Reparadores de bicicletas	</t>
+    <t>Reparadores de bicicletas</t>
   </si>
   <si>
     <t>7311</t>
   </si>
   <si>
-    <t xml:space="preserve">mecánicos y reparadores de instrumentos de precisión	</t>
+    <t>mecánicos y reparadores de instrumentos de precisión</t>
   </si>
   <si>
     <t>7312</t>
   </si>
   <si>
-    <t xml:space="preserve">Fabricantes y afinadores de instrumentos musicales	</t>
+    <t>Fabricantes y afinadores de instrumentos musicales</t>
   </si>
   <si>
     <t>7313</t>
   </si>
   <si>
-    <t xml:space="preserve">Joyeros, orfebres y plateros	</t>
+    <t>Joyeros, orfebres y plateros</t>
   </si>
   <si>
     <t>7314</t>
   </si>
   <si>
-    <t xml:space="preserve">Alfareros (barro, arcilla y abrasivos)	</t>
+    <t>Alfareros (barro, arcilla y abrasivos)</t>
   </si>
   <si>
     <t>7315</t>
   </si>
   <si>
-    <t xml:space="preserve">Sopladores, modeladores, laminadores, cortadores y pulidores de vidrio	</t>
+    <t>Sopladores, modeladores, laminadores, cortadores y pulidores de vidrio</t>
   </si>
   <si>
     <t>7316</t>
   </si>
   <si>
-    <t xml:space="preserve">Pintores de carteles, pintores decorativos y grabadores	</t>
+    <t>Pintores de carteles, pintores decorativos y grabadores</t>
   </si>
   <si>
     <t>7317</t>
   </si>
   <si>
-    <t xml:space="preserve">Artesanos en madera, cestería y materiales similares	</t>
+    <t>Artesanos en madera, cestería y materiales similares</t>
   </si>
   <si>
     <t>7318</t>
   </si>
   <si>
-    <t xml:space="preserve">Artesanos de los tejidos, el cuero y materiales similares	</t>
+    <t>Artesanos de los tejidos, el cuero y materiales similares</t>
   </si>
   <si>
     <t>7319</t>
   </si>
   <si>
-    <t xml:space="preserve">Artesanos no clasificados previamente	</t>
+    <t>Artesanos no clasificados previamente</t>
   </si>
   <si>
     <t>7321</t>
   </si>
   <si>
-    <t xml:space="preserve">Tipógrafos  	</t>
+    <t>Tipógrafos</t>
   </si>
   <si>
     <t>7322</t>
   </si>
   <si>
-    <t xml:space="preserve">Impresores	</t>
+    <t>Impresores</t>
   </si>
   <si>
     <t>7323</t>
   </si>
   <si>
-    <t xml:space="preserve">Encuadernadores	</t>
+    <t>Encuadernadores</t>
   </si>
   <si>
     <t>7411</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricistas de obras	</t>
+    <t>Electricistas de obras</t>
   </si>
   <si>
     <t>7412</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y ajustadores electricistas	</t>
+    <t>Mecánicos y ajustadores electricistas</t>
   </si>
   <si>
     <t>7413</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores y reparadores de líneas eléctricas	</t>
+    <t>Instaladores y reparadores de líneas eléctricas</t>
   </si>
   <si>
     <t>7421</t>
   </si>
   <si>
-    <t xml:space="preserve">Mecánicos y reparadores en electrónica	</t>
+    <t>Mecánicos y reparadores en electrónica</t>
   </si>
   <si>
     <t>7422</t>
   </si>
   <si>
-    <t xml:space="preserve">Instaladores y reparadores en tecnología de la información y las comunicaciones	</t>
+    <t>Instaladores y reparadores en tecnología de la información y las comunicaciones</t>
   </si>
   <si>
     <t>7511</t>
   </si>
   <si>
-    <t xml:space="preserve">Carniceros y pescaderos	</t>
+    <t>Carniceros y pescaderos</t>
   </si>
   <si>
     <t>7512</t>
   </si>
   <si>
-    <t xml:space="preserve">Panaderos, pasteleros y confíteros	</t>
+    <t>Panaderos, pasteleros y confíteros</t>
   </si>
   <si>
     <t>7513</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios de la elaboración de productos lácteos	</t>
+    <t>Operarios de la elaboración de productos lácteos</t>
   </si>
   <si>
     <t>7514</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios de la conservación de frutas, legumbres y verduras	</t>
+    <t>Operarios de la conservación de frutas, legumbres y verduras</t>
   </si>
   <si>
     <t>7515</t>
   </si>
   <si>
-    <t xml:space="preserve">Catadores, clasificadores y controladores de calidad de alimentos y bebidas	</t>
+    <t>Catadores, clasificadores y controladores de calidad de alimentos y bebidas</t>
   </si>
   <si>
     <t>7516</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaboradores de tabaco y sus productos	</t>
+    <t>Elaboradores de tabaco y sus productos</t>
   </si>
   <si>
     <t>7521</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios del tratamiento de la madera 	</t>
+    <t>Operarios del tratamiento de la madera</t>
   </si>
   <si>
     <t>7522</t>
   </si>
   <si>
-    <t xml:space="preserve">Ebanistas y mueblistas	</t>
+    <t>Ebanistas y mueblistas</t>
   </si>
   <si>
     <t>7523</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores y reguladores de máquinas para trabajar la madera	</t>
+    <t>Operadores y reguladores de máquinas para trabajar la madera</t>
   </si>
   <si>
     <t>7531</t>
   </si>
   <si>
-    <t xml:space="preserve">Sastres, modistos, peleteros y sombrereros	</t>
+    <t>Sastres, modistos, peleteros y sombrereros</t>
   </si>
   <si>
     <t>7532</t>
   </si>
   <si>
-    <t xml:space="preserve">Patronistas y cortadores de telas	</t>
+    <t>Patronistas y cortadores de telas</t>
   </si>
   <si>
     <t>7533</t>
   </si>
   <si>
-    <t xml:space="preserve">Costureros y bordadores	</t>
+    <t>Costureros y bordadores</t>
   </si>
   <si>
     <t>7534</t>
   </si>
   <si>
-    <t xml:space="preserve">Tapiceros	</t>
+    <t>Tapiceros</t>
   </si>
   <si>
     <t>7535</t>
   </si>
   <si>
-    <t xml:space="preserve">Apelambradores, pellejeros y curtidores	</t>
+    <t>Apelambradores, pellejeros y curtidores</t>
   </si>
   <si>
     <t>7536</t>
   </si>
   <si>
-    <t xml:space="preserve">Zapateros	</t>
+    <t>Zapateros</t>
   </si>
   <si>
     <t>7541</t>
   </si>
   <si>
-    <t xml:space="preserve">Buzos 	</t>
+    <t>Buzos</t>
   </si>
   <si>
     <t>7542</t>
   </si>
   <si>
-    <t xml:space="preserve">Dinamiteros y pegadores	</t>
+    <t>Dinamiteros y pegadores</t>
   </si>
   <si>
     <t>7543</t>
   </si>
   <si>
-    <t xml:space="preserve">Clasificadores, probadores de productos e inspectores de calidad (excluyendo alimentos y bebidas)	</t>
+    <t>Clasificadores, probadores de productos e inspectores de calidad (excluyendo alimentos y bebidas)</t>
   </si>
   <si>
     <t>7544</t>
   </si>
   <si>
-    <t xml:space="preserve">Fumigadores y otros controladores de plagas y malezas	</t>
+    <t>Fumigadores y otros controladores de plagas y malezas</t>
   </si>
   <si>
     <t>7549</t>
   </si>
   <si>
-    <t xml:space="preserve">Operarios de otros oficios no clasificados previamente	</t>
+    <t>Operarios de otros oficios no clasificados previamente</t>
   </si>
   <si>
     <t>8111</t>
   </si>
   <si>
-    <t xml:space="preserve">Mineros y operadores de instalaciones mineras 	</t>
+    <t>Mineros y operadores de instalaciones mineras</t>
   </si>
   <si>
     <t>8112</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de procesamiento de minerales y rocas	</t>
+    <t>Operadores de instalaciones de procesamiento de minerales y rocas</t>
   </si>
   <si>
     <t>8113</t>
   </si>
   <si>
-    <t xml:space="preserve">Perforadores y sondistas de pozos	</t>
+    <t>Perforadores y sondistas de pozos</t>
   </si>
   <si>
     <t>8114</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar cemento y otros productos minerales	</t>
+    <t>Operadores de máquinas para fabricar cemento y otros productos minerales</t>
   </si>
   <si>
     <t>8121</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de procesamiento de metales	</t>
+    <t>Operadores de instalaciones de procesamiento de metales</t>
   </si>
   <si>
     <t>8122</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de acabado de metales (pulidores, galvanizadores y recubridores de metales)	</t>
+    <t>Operadores de máquinas de acabado de metales (pulidores, galvanizadores y recubridores de metales)</t>
   </si>
   <si>
     <t>8131</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de plantas y máquinas para fabricar productos químicos	</t>
+    <t>Operadores de plantas y máquinas para fabricar productos químicos</t>
   </si>
   <si>
     <t>8132</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos fotográficos	</t>
+    <t>Operadores de máquinas para fabricar productos fotográficos</t>
   </si>
   <si>
     <t>8141</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos de caucho 	</t>
+    <t>Operadores de máquinas para fabricar productos de caucho</t>
   </si>
   <si>
     <t>8142</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos de material plástico	</t>
+    <t>Operadores de máquinas para fabricar productos de material plástico</t>
   </si>
   <si>
     <t>8143</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos de papel	</t>
+    <t>Operadores de máquinas para fabricar productos de papel</t>
   </si>
   <si>
     <t>8151</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de preparación de fibras, hilado y devanado	</t>
+    <t>Operadores de máquinas de preparación de fibras, hilado y devanado</t>
   </si>
   <si>
     <t>8152</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de telares y otras máquinas tejedoras	</t>
+    <t>Operadores de telares y otras máquinas tejedoras</t>
   </si>
   <si>
     <t>8153</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de coser	</t>
+    <t>Operadores de máquinas de coser</t>
   </si>
   <si>
     <t>8154</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de blanqueamiento, teñido y limpieza de tejidos	</t>
+    <t>Operadores de máquinas de blanqueamiento, teñido y limpieza de tejidos</t>
   </si>
   <si>
     <t>8155</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de tratamiento de pieles y cueros	</t>
+    <t>Operadores de máquinas de tratamiento de pieles y cueros</t>
   </si>
   <si>
     <t>8156</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para la fabricación de calzado, bolsos y accesorios de talabartería	</t>
+    <t>Operadores de máquinas para la fabricación de calzado, bolsos y accesorios de talabartería</t>
   </si>
   <si>
     <t>8157</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de lavanderías	</t>
+    <t>Operadores de máquinas de lavanderías</t>
   </si>
   <si>
     <t>8159</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para fabricar productos textiles y artículos de piel y cuero no clasificados previamente	</t>
+    <t>Operadores de máquinas para fabricar productos textiles y artículos de piel y cuero no clasificados previamente</t>
   </si>
   <si>
     <t>8160</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas para elaborar alimentos, bebidas y cigarrillos	</t>
+    <t>Operadores de máquinas para elaborar alimentos, bebidas y cigarrillos</t>
   </si>
   <si>
     <t>8171</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones para la preparación de papel y de pasta para papel	</t>
+    <t>Operadores de instalaciones para la preparación de papel y de pasta para papel</t>
   </si>
   <si>
     <t>8172</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de procesamiento de la madera	</t>
+    <t>Operadores de instalaciones de procesamiento de la madera</t>
   </si>
   <si>
     <t>8181</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de instalaciones de vidrieriía y cerámica	</t>
+    <t>Operadores de instalaciones de vidrieriía y cerámica</t>
   </si>
   <si>
     <t>8182</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de vapor y calderas	</t>
+    <t>Operadores de máquinas de vapor y calderas</t>
   </si>
   <si>
     <t>8183</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de embalaje, embotellamiento y etiquetado	</t>
+    <t>Operadores de máquinas de embalaje, embotellamiento y etiquetado</t>
   </si>
   <si>
     <t>8189</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas y de instalaciones fijas no clasificados previamente	</t>
+    <t>Operadores de máquinas y de instalaciones fijas no clasificados previamente</t>
   </si>
   <si>
     <t>8211</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensambladores de maquinaria mecánica 	</t>
+    <t>Ensambladores de maquinaria mecánica</t>
   </si>
   <si>
     <t>8212</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensambladores de equipos eléctricos y electrónicos	</t>
+    <t>Ensambladores de equipos eléctricos y electrónicos</t>
   </si>
   <si>
     <t>8219</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensambladores no clasificados previamente	</t>
+    <t>Ensambladores no clasificados previamente</t>
   </si>
   <si>
     <t>8311</t>
   </si>
   <si>
-    <t xml:space="preserve">Maquinistas de locomotoras  	</t>
+    <t>Maquinistas de locomotoras</t>
   </si>
   <si>
     <t>8312</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardafrenos, guardagujas y agentes de maniobras	</t>
+    <t>Guardafrenos, guardagujas y agentes de maniobras</t>
   </si>
   <si>
     <t>8321</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de motocicletas 	</t>
+    <t>Conductores de motocicletas</t>
   </si>
   <si>
     <t>8322</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de automóviles, taxis y camionetas	</t>
+    <t>Conductores de automóviles, taxis y camionetas</t>
   </si>
   <si>
     <t>8331</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de buses y trolebuses	</t>
+    <t>Conductores de buses y trolebuses</t>
   </si>
   <si>
     <t>8332</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de camiones pesados y de alto tonelaje	</t>
+    <t>Conductores de camiones pesados y de alto tonelaje</t>
   </si>
   <si>
     <t>8341</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de maquinaria agrícola y forestal móvil	</t>
+    <t>Operadores de maquinaria agrícola y forestal móvil</t>
   </si>
   <si>
     <t>8342</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de máquinas de movimiento de tierras	</t>
+    <t>Operadores de máquinas de movimiento de tierras</t>
   </si>
   <si>
     <t>8343</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de grúas y aparatos elevadores	</t>
+    <t>Operadores de grúas y aparatos elevadores</t>
   </si>
   <si>
     <t>8344</t>
   </si>
   <si>
-    <t xml:space="preserve">Operadores de autoelevadoras y montacargas	</t>
+    <t>Operadores de autoelevadoras y montacargas</t>
   </si>
   <si>
     <t>8350</t>
   </si>
   <si>
-    <t xml:space="preserve">Tripulantes de cubierta de barco	</t>
+    <t>Tripulantes de cubierta de barco</t>
   </si>
   <si>
     <t>9111</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores de casa particular y asistentes domésticos	</t>
+    <t>Trabajadores de casa particular y asistentes domésticos</t>
   </si>
   <si>
     <t>9112</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares de aseo de oficinas, hoteles y otros establecimientos	</t>
+    <t>Auxiliares de aseo de oficinas, hoteles y otros establecimientos</t>
   </si>
   <si>
     <t>9121</t>
   </si>
   <si>
-    <t xml:space="preserve">Lavadores y planchadores manuales	</t>
+    <t>Lavadores y planchadores manuales</t>
   </si>
   <si>
     <t>9122</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiadores de vehículos 	</t>
+    <t>Limpiadores de vehículos</t>
   </si>
   <si>
     <t>9123</t>
   </si>
   <si>
-    <t xml:space="preserve">Limpiadores de ventanas	</t>
+    <t>Limpiadores de ventanas</t>
   </si>
   <si>
     <t>9129</t>
   </si>
   <si>
-    <t xml:space="preserve">Otro personal de limpieza no clasificado previamente	</t>
+    <t>Otro personal de limpieza no clasificado previamente</t>
   </si>
   <si>
     <t>9211</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de explotaciones agrícolas	</t>
+    <t>Obreros de explotaciones agrícolas</t>
   </si>
   <si>
     <t>9212</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de explotaciones ganaderas	</t>
+    <t>Obreros de explotaciones ganaderas</t>
   </si>
   <si>
     <t>9213</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de explotaciones agropecuarias	</t>
+    <t>Obreros de explotaciones agropecuarias</t>
   </si>
   <si>
     <t>9214</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudantes de jardinería y horticultura	</t>
+    <t>Ayudantes de jardinería y horticultura</t>
   </si>
   <si>
     <t>9215</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros forestales	</t>
+    <t>Obreros forestales</t>
   </si>
   <si>
     <t>9216</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de pesca y acuicultura	</t>
+    <t>Obreros de pesca y acuicultura</t>
   </si>
   <si>
     <t>9311</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de la minería	</t>
+    <t>Obreros de la minería</t>
   </si>
   <si>
     <t>9312</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de obras públicas	</t>
+    <t>Obreros de obras públicas</t>
   </si>
   <si>
     <t>9313</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de la construcción de edificios	</t>
+    <t>Obreros de la construcción de edificios</t>
   </si>
   <si>
     <t>9321</t>
   </si>
   <si>
-    <t xml:space="preserve">Empacadores manuales	</t>
+    <t>Empacadores manuales</t>
   </si>
   <si>
     <t>9329</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de la industria manufacturera no clasificados previamente	</t>
+    <t>Obreros de la industria manufacturera no clasificados previamente</t>
   </si>
   <si>
     <t>9331</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de vehículos accionados a pedal o a brazo (no motorizados)	</t>
+    <t>Conductores de vehículos accionados a pedal o a brazo (no motorizados)</t>
   </si>
   <si>
     <t>9332</t>
   </si>
   <si>
-    <t xml:space="preserve">Conductores de vehículos y máquinas de tracción animal	</t>
+    <t>Conductores de vehículos y máquinas de tracción animal</t>
   </si>
   <si>
     <t>9333</t>
   </si>
   <si>
-    <t xml:space="preserve">Obreros de carga	</t>
+    <t>Obreros de carga</t>
   </si>
   <si>
     <t>9334</t>
   </si>
   <si>
-    <t xml:space="preserve">Reponedores de estanterías	</t>
+    <t>Reponedores de estanterías</t>
   </si>
   <si>
     <t>9411</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocineros de comida rápida  	</t>
+    <t>Cocineros de comida rápida</t>
   </si>
   <si>
     <t>9412</t>
   </si>
   <si>
-    <t xml:space="preserve">Ayudantes de cocina	</t>
+    <t>Ayudantes de cocina</t>
   </si>
   <si>
     <t>9510</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajadores ambulantes de servicios  	</t>
+    <t>Trabajadores ambulantes de servicios</t>
   </si>
   <si>
     <t>9520</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendedores ambulantes (excluyendo comida de consumo inmediato)	</t>
+    <t>Vendedores ambulantes (excluyendo comida de consumo inmediato)</t>
   </si>
   <si>
     <t>9611</t>
   </si>
   <si>
-    <t xml:space="preserve">Recolectores de basura y material reciclable  	</t>
+    <t>Recolectores de basura y material reciclable</t>
   </si>
   <si>
     <t>9612</t>
   </si>
   <si>
-    <t xml:space="preserve">Clasificadores de desechos	</t>
+    <t>Clasificadores de desechos</t>
   </si>
   <si>
     <t>9613</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrenderos	</t>
+    <t>Barrenderos</t>
   </si>
   <si>
     <t>9621</t>
   </si>
   <si>
-    <t xml:space="preserve">Mensajeros, estafetas, maleteros y repartidores de folletos y diarios a domicilio	</t>
+    <t>Mensajeros, estafetas, maleteros y repartidores de folletos y diarios a domicilio</t>
   </si>
   <si>
     <t>9622</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliares de mantenimiento (pequeñas reparaciones)	</t>
+    <t>Auxiliares de mantenimiento (pequeñas reparaciones)</t>
   </si>
   <si>
     <t>9623</t>
   </si>
   <si>
-    <t xml:space="preserve">Recolectores de dinero en máquinas expendedoras de venta automática y lectores de medidores	</t>
+    <t>Recolectores de dinero en máquinas expendedoras de venta automática y lectores de medidores</t>
   </si>
   <si>
     <t>9624</t>
   </si>
   <si>
-    <t xml:space="preserve">Acarreadores de agua y recolectores de leña	</t>
+    <t>Acarreadores de agua y recolectores de leña</t>
   </si>
   <si>
     <t>9629</t>
   </si>
   <si>
-    <t xml:space="preserve">Otras ocupaciones elementales no clasificadas previamente	</t>
+    <t>Otras ocupaciones elementales no clasificadas previamente</t>
   </si>
 </sst>
 </file>

--- a/fhir/ig/mpi/CodeSystem-CSOcupacionesDet.xlsx
+++ b/fhir/ig/mpi/CodeSystem-CSOcupacionesDet.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/ig/mpi/CodeSystem/CSOcupacionesDet</t>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/mpi/CodeSystem/CSOcupacionesDet</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>MINSAL</t>
+    <t>Unidad de Interoperabilidad - MINSAL</t>
   </si>
   <si>
     <t>Contact</t>
